--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1574799.088935716</v>
+        <v>1571764.114117573</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4941244.251829514</v>
+        <v>4941244.251829517</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6316854.118816632</v>
+        <v>6316854.118816633</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.118967867844566</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -673,7 +673,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>4.641001266096118</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>9.146429456440488</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.056175065232779</v>
+        <v>9.146429456440488</v>
       </c>
     </row>
     <row r="10">
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="D10" t="n">
+        <v>8.056175065232779</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>57.60497453636479</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H11" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U11" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>317.2519675560438</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>171.3654368228146</v>
@@ -1584,7 +1584,7 @@
         <v>233.9261601361662</v>
       </c>
       <c r="U13" t="n">
-        <v>8.60673706904287</v>
+        <v>146.0856145920157</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.3028906086109</v>
+        <v>196.996640254809</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>43.23327305247847</v>
       </c>
       <c r="I16" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>171.3654368228146</v>
@@ -1821,7 +1821,7 @@
         <v>233.9261601361662</v>
       </c>
       <c r="U16" t="n">
-        <v>15.93556283455159</v>
+        <v>279.9289690666107</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>399.2517034228728</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H17" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>152.9475392729007</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U17" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.7192589986418</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.3618010642073</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>368.8312946228076</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>112.8204842171448</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>58.72890242865525</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I22" t="n">
-        <v>92.46935422024676</v>
+        <v>3.601438080250987</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>171.3654368228146</v>
@@ -2298,7 +2298,7 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2335,7 +2335,7 @@
         <v>402.9572413489716</v>
       </c>
       <c r="H23" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>20.57509085115342</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>95.5595853423645</v>
+        <v>46.01123807628478</v>
       </c>
       <c r="T23" t="n">
         <v>212.6137601753971</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>39.81874444279551</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>64.82180381479317</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>171.3654368228146</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.88281714672819</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>41.22069107790711</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.9572413489716</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>21.03754700479474</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2721,16 +2721,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.32216171139619</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>171.3654368228146</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.2589819374965</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>317.9134306483368</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I29" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.6137601753971</v>
       </c>
       <c r="U29" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>341.2296244921751</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.81956076832338</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>171.3654368228146</v>
+        <v>45.21627116139256</v>
       </c>
       <c r="T31" t="n">
         <v>233.9261601361662</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>317.9134306483368</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>95.5595853423645</v>
+        <v>10.51577464173036</v>
       </c>
       <c r="T32" t="n">
         <v>212.6137601753971</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.73444436812781</v>
+        <v>66.65959961467392</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>171.3654368228146</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>212.8940442362681</v>
+        <v>245.0802472012317</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.1212677486869</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.26197553128768</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>171.3654368228146</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>320.4734975595145</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>290.5556061473074</v>
+        <v>240.588409865747</v>
       </c>
       <c r="I38" t="n">
         <v>20.57509085115342</v>
@@ -3565,10 +3565,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.1212677486869</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.32570537373866</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.9261601361662</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.340416894149556</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>247.8458465780512</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>171.3654368228146</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U43" t="n">
         <v>279.9289690666107</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>174.9547917889547</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>182.7396982677156</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>41.28265531785186</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>96.43774569644992</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T44" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.355186029715</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>71.15628415226331</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V46" t="n">
-        <v>217.3509781585992</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.40494220167653</v>
+        <v>30.40494220167654</v>
       </c>
       <c r="C2" t="n">
-        <v>24.32075555535072</v>
+        <v>24.32075555535073</v>
       </c>
       <c r="D2" t="n">
-        <v>23.89722968881533</v>
+        <v>23.89722968881534</v>
       </c>
       <c r="E2" t="n">
-        <v>14.65841205604716</v>
+        <v>14.65841205604717</v>
       </c>
       <c r="F2" t="n">
-        <v>5.419594423278988</v>
+        <v>5.419594423278994</v>
       </c>
       <c r="G2" t="n">
         <v>0.7317143565152391</v>
@@ -4330,25 +4330,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="K2" t="n">
         <v>9.786679518391322</v>
       </c>
-      <c r="K2" t="n">
-        <v>18.47578750200979</v>
-      </c>
       <c r="L2" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M2" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="N2" t="n">
-        <v>18.47578750200979</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="O2" t="n">
-        <v>18.47578750200979</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P2" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q2" t="n">
         <v>36.58571782576195</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.44816725481975</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="F3" t="n">
         <v>9.97053198928341</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>9.97053198928341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="H3" t="n">
         <v>0.7317143565152391</v>
@@ -4409,25 +4409,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L3" t="n">
-        <v>9.786679518391322</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="M3" t="n">
-        <v>9.786679518391322</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="N3" t="n">
-        <v>9.786679518391322</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="O3" t="n">
-        <v>18.84164468026741</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P3" t="n">
-        <v>27.89660984214349</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q3" t="n">
         <v>36.58571782576195</v>
@@ -4436,25 +4436,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T3" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U3" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V3" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W3" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X3" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="C4" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="D4" t="n">
-        <v>27.34690019299378</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="E4" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F4" t="n">
         <v>9.97053198928341</v>
@@ -4491,16 +4491,16 @@
         <v>9.786679518391322</v>
       </c>
       <c r="K4" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L4" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="M4" t="n">
-        <v>18.47578750200979</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="N4" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="O4" t="n">
         <v>36.58571782576195</v>
@@ -4518,22 +4518,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T4" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U4" t="n">
-        <v>36.58571782576195</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="V4" t="n">
-        <v>36.58571782576195</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="W4" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="X4" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
     </row>
     <row r="5">
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M5" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N5" t="n">
-        <v>27.89660984214349</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O5" t="n">
-        <v>36.58571782576195</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="P5" t="n">
-        <v>36.58571782576195</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7317143565152391</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="H6" t="n">
         <v>0.7317143565152391</v>
@@ -4649,49 +4649,49 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K6" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L6" t="n">
-        <v>18.84164468026741</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M6" t="n">
-        <v>27.89660984214349</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N6" t="n">
-        <v>27.89660984214349</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89660984214349</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="P6" t="n">
-        <v>36.58571782576195</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R6" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="S6" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T6" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U6" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7317143565152391</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="I7" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K7" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L7" t="n">
         <v>18.47578750200979</v>
       </c>
       <c r="M7" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="N7" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="P7" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="N7" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="P7" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q7" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="S7" t="n">
         <v>27.34690019299378</v>
       </c>
       <c r="T7" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="U7" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="V7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="8">
@@ -4807,10 +4807,10 @@
         <v>9.786679518391322</v>
       </c>
       <c r="K8" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L8" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="M8" t="n">
         <v>27.53075266388587</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7317143565152391</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7317143565152391</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="D9" t="n">
         <v>0.7317143565152391</v>
@@ -4886,22 +4886,22 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="O9" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="P9" t="n">
         <v>18.47578750200979</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.53075266388587</v>
       </c>
       <c r="Q9" t="n">
         <v>27.53075266388587</v>
@@ -4916,19 +4916,19 @@
         <v>36.58571782576195</v>
       </c>
       <c r="U9" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="V9" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="W9" t="n">
         <v>27.34690019299378</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>18.10808256022561</v>
       </c>
-      <c r="W9" t="n">
-        <v>18.10808256022561</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>8.86926492745744</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.7317143565152391</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.20934962205158</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="C10" t="n">
-        <v>19.20934962205158</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="D10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G10" t="n">
         <v>0.7317143565152391</v>
@@ -4962,22 +4962,22 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>9.420822340133704</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K10" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L10" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M10" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N10" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P10" t="n">
         <v>36.58571782576195</v>
@@ -4986,13 +4986,13 @@
         <v>36.58571782576195</v>
       </c>
       <c r="R10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="S10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U10" t="n">
         <v>27.34690019299378</v>
@@ -5007,7 +5007,7 @@
         <v>27.34690019299378</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.34690019299378</v>
+        <v>18.10808256022561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418.8003813497354</v>
+        <v>874.398035632559</v>
       </c>
       <c r="C11" t="n">
-        <v>360.6135383837104</v>
+        <v>874.398035632559</v>
       </c>
       <c r="D11" t="n">
-        <v>360.6135383837104</v>
+        <v>874.398035632559</v>
       </c>
       <c r="E11" t="n">
-        <v>360.6135383837104</v>
+        <v>874.398035632559</v>
       </c>
       <c r="F11" t="n">
-        <v>360.6135383837104</v>
+        <v>453.3676235862465</v>
       </c>
       <c r="G11" t="n">
-        <v>360.6135383837104</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H11" t="n">
-        <v>67.12302712380387</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I11" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J11" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K11" t="n">
-        <v>239.0214437614154</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L11" t="n">
-        <v>407.5437433696148</v>
+        <v>734.3195702573439</v>
       </c>
       <c r="M11" t="n">
-        <v>913.9488814685933</v>
+        <v>934.6592215071867</v>
       </c>
       <c r="N11" t="n">
-        <v>1487.407706486248</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O11" t="n">
-        <v>2060.866531503903</v>
+        <v>1328.708949985865</v>
       </c>
       <c r="P11" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q11" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R11" t="n">
         <v>2317.005353606687</v>
@@ -5071,22 +5071,22 @@
         <v>2220.480519927531</v>
       </c>
       <c r="T11" t="n">
-        <v>2220.480519927531</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U11" t="n">
-        <v>1963.556089594485</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="V11" t="n">
-        <v>1613.718534930966</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="W11" t="n">
-        <v>1229.958234066135</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="X11" t="n">
-        <v>1229.958234066135</v>
+        <v>1605.075748181941</v>
       </c>
       <c r="Y11" t="n">
-        <v>829.0215610142249</v>
+        <v>1284.619215297048</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I12" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J12" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K12" t="n">
-        <v>412.1681315835714</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2666030191489</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M12" t="n">
-        <v>991.3064639093425</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N12" t="n">
-        <v>1170.608665769462</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O12" t="n">
-        <v>1325.636133887535</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P12" t="n">
-        <v>1899.09495890519</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q12" t="n">
         <v>1956.817230278806</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.9575504918241</v>
+        <v>781.0596971863827</v>
       </c>
       <c r="C13" t="n">
-        <v>697.8641780535406</v>
+        <v>609.9663247480992</v>
       </c>
       <c r="D13" t="n">
-        <v>538.3695333764506</v>
+        <v>609.9663247480992</v>
       </c>
       <c r="E13" t="n">
-        <v>377.4587182447701</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="F13" t="n">
-        <v>212.8275923553613</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="G13" t="n">
-        <v>46.34010707213374</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="H13" t="n">
-        <v>46.34010707213374</v>
+        <v>139.7434951733931</v>
       </c>
       <c r="I13" t="n">
         <v>46.34010707213374</v>
@@ -5223,28 +5223,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R13" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S13" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T13" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U13" t="n">
-        <v>1847.956528577789</v>
+        <v>1760.058675272347</v>
       </c>
       <c r="V13" t="n">
-        <v>1574.070783517311</v>
+        <v>1486.172930211869</v>
       </c>
       <c r="W13" t="n">
-        <v>1295.001119026185</v>
+        <v>1207.103265720744</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.657256885868</v>
+        <v>968.759403580427</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.657256885868</v>
+        <v>968.759403580427</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1571.322941015986</v>
+        <v>1717.082175246889</v>
       </c>
       <c r="C14" t="n">
-        <v>1161.198350329256</v>
+        <v>1306.957584560159</v>
       </c>
       <c r="D14" t="n">
-        <v>1161.198350329256</v>
+        <v>902.4936546532197</v>
       </c>
       <c r="E14" t="n">
-        <v>746.858134846153</v>
+        <v>488.1534391701163</v>
       </c>
       <c r="F14" t="n">
-        <v>746.858134846153</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="G14" t="n">
-        <v>339.8306183320402</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H14" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I14" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J14" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K14" t="n">
-        <v>239.0214437614154</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L14" t="n">
-        <v>407.5437433696148</v>
+        <v>734.3195702573439</v>
       </c>
       <c r="M14" t="n">
-        <v>981.0025683872699</v>
+        <v>934.6592215071867</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.45251703642</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O14" t="n">
-        <v>1507.404682736614</v>
+        <v>1328.708949985865</v>
       </c>
       <c r="P14" t="n">
-        <v>2080.863507754269</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q14" t="n">
         <v>2171.738898861988</v>
@@ -5317,13 +5317,13 @@
         <v>2317.005353606687</v>
       </c>
       <c r="W14" t="n">
-        <v>1933.245052741856</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="X14" t="n">
-        <v>1933.245052741856</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.245052741856</v>
+        <v>1916.068680554777</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>56.71175580930699</v>
       </c>
       <c r="J15" t="n">
-        <v>90.11950605479974</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K15" t="n">
-        <v>178.8713763461114</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L15" t="n">
-        <v>316.9698477816888</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M15" t="n">
-        <v>890.4286727993439</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N15" t="n">
-        <v>1069.730874659464</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O15" t="n">
-        <v>1643.189699677119</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P15" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q15" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R15" t="n">
         <v>2041.751673158611</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.8189975719941</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C16" t="n">
-        <v>465.7256251337107</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2309804566207</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2309804566207</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="F16" t="n">
-        <v>306.2309804566207</v>
+        <v>256.4975651356426</v>
       </c>
       <c r="G16" t="n">
-        <v>139.7434951733931</v>
+        <v>90.01007985241503</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I16" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J16" t="n">
-        <v>113.2867408723823</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K16" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L16" t="n">
-        <v>725.7742600107269</v>
+        <v>725.7742600107267</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.247446864444</v>
+        <v>1132.247446864443</v>
       </c>
       <c r="N16" t="n">
         <v>1527.508388525978</v>
@@ -5460,28 +5460,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R16" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S16" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T16" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U16" t="n">
-        <v>1840.553674269194</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.667929208716</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W16" t="n">
-        <v>1287.59826471759</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X16" t="n">
-        <v>1049.254402577274</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5187039660385</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>754.1708338151435</v>
+        <v>1692.022800027655</v>
       </c>
       <c r="C17" t="n">
-        <v>754.1708338151435</v>
+        <v>1288.738251115662</v>
       </c>
       <c r="D17" t="n">
-        <v>754.1708338151435</v>
+        <v>1288.738251115662</v>
       </c>
       <c r="E17" t="n">
-        <v>339.8306183320402</v>
+        <v>874.398035632559</v>
       </c>
       <c r="F17" t="n">
-        <v>339.8306183320402</v>
+        <v>453.3676235862465</v>
       </c>
       <c r="G17" t="n">
-        <v>339.8306183320402</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H17" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I17" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J17" t="n">
         <v>442.0035266232771</v>
@@ -5524,16 +5524,16 @@
         <v>734.3195702573439</v>
       </c>
       <c r="M17" t="n">
-        <v>1307.778395274999</v>
+        <v>934.6592215071867</v>
       </c>
       <c r="N17" t="n">
-        <v>1513.228343924148</v>
+        <v>1334.97661144778</v>
       </c>
       <c r="O17" t="n">
-        <v>1701.828123753678</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P17" t="n">
-        <v>2080.863507754269</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q17" t="n">
         <v>2171.738898861988</v>
@@ -5545,22 +5545,22 @@
         <v>2317.005353606687</v>
       </c>
       <c r="T17" t="n">
-        <v>2162.512889694666</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U17" t="n">
-        <v>1905.58845936162</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="V17" t="n">
-        <v>1555.750904698101</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="W17" t="n">
-        <v>1555.750904698101</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="X17" t="n">
-        <v>1155.107506867053</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="Y17" t="n">
-        <v>754.1708338151435</v>
+        <v>2102.243979692144</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>108.2987238366352</v>
       </c>
       <c r="H18" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I18" t="n">
-        <v>46.34010707213373</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J18" t="n">
-        <v>79.74785731762648</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K18" t="n">
-        <v>653.2066823352814</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L18" t="n">
-        <v>1226.665507352936</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M18" t="n">
-        <v>1395.659441443935</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N18" t="n">
-        <v>1574.961643304055</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O18" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P18" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q18" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R18" t="n">
         <v>2041.751673158611</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>378.3442946420977</v>
+        <v>370.1589912769849</v>
       </c>
       <c r="C19" t="n">
-        <v>207.2509222038142</v>
+        <v>370.1589912769849</v>
       </c>
       <c r="D19" t="n">
-        <v>207.2509222038142</v>
+        <v>355.6521215151594</v>
       </c>
       <c r="E19" t="n">
-        <v>46.34010707213373</v>
+        <v>355.6521215151594</v>
       </c>
       <c r="F19" t="n">
-        <v>46.34010707213373</v>
+        <v>355.6521215151594</v>
       </c>
       <c r="G19" t="n">
-        <v>46.34010707213373</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H19" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I19" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J19" t="n">
-        <v>113.2867408723821</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K19" t="n">
         <v>354.7109984607101</v>
       </c>
       <c r="L19" t="n">
-        <v>725.7742600107266</v>
+        <v>725.7742600107267</v>
       </c>
       <c r="M19" t="n">
         <v>1132.247446864443</v>
@@ -5691,34 +5691,34 @@
         <v>1892.756382698929</v>
       </c>
       <c r="P19" t="n">
-        <v>2188.865637888952</v>
+        <v>2188.865637888953</v>
       </c>
       <c r="Q19" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="R19" t="n">
-        <v>2266.03565385862</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="S19" t="n">
-        <v>2092.939253027494</v>
+        <v>2092.939253027495</v>
       </c>
       <c r="T19" t="n">
-        <v>1856.650202384902</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="U19" t="n">
-        <v>1573.893667974184</v>
+        <v>1573.893667974185</v>
       </c>
       <c r="V19" t="n">
-        <v>1300.007922913706</v>
+        <v>1300.007922913707</v>
       </c>
       <c r="W19" t="n">
         <v>1020.938258422581</v>
       </c>
       <c r="X19" t="n">
-        <v>782.5943962822641</v>
+        <v>782.5943962822646</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8586976710288</v>
+        <v>557.8586976710293</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>829.0215610142249</v>
+        <v>1696.299255195219</v>
       </c>
       <c r="C20" t="n">
-        <v>418.896970327495</v>
+        <v>1286.174664508489</v>
       </c>
       <c r="D20" t="n">
-        <v>418.896970327495</v>
+        <v>881.7107346015495</v>
       </c>
       <c r="E20" t="n">
-        <v>418.896970327495</v>
+        <v>467.3705191184462</v>
       </c>
       <c r="F20" t="n">
         <v>46.34010707213374</v>
@@ -5752,28 +5752,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J20" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K20" t="n">
-        <v>239.0214437614154</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L20" t="n">
-        <v>407.5437433696148</v>
+        <v>734.3195702573439</v>
       </c>
       <c r="M20" t="n">
-        <v>981.0025683872699</v>
+        <v>934.6592215071867</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.45251703642</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O20" t="n">
-        <v>1634.400349812755</v>
+        <v>1328.708949985865</v>
       </c>
       <c r="P20" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q20" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R20" t="n">
         <v>2317.005353606687</v>
@@ -5785,19 +5785,19 @@
         <v>2220.480519927531</v>
       </c>
       <c r="U20" t="n">
-        <v>1963.556089594485</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="V20" t="n">
-        <v>1613.718534930966</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="W20" t="n">
-        <v>1229.958234066135</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="X20" t="n">
-        <v>1229.958234066135</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="Y20" t="n">
-        <v>829.0215610142249</v>
+        <v>2106.520434859708</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I21" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J21" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K21" t="n">
-        <v>412.1681315835714</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L21" t="n">
-        <v>550.2666030191489</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M21" t="n">
-        <v>719.2605371101473</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N21" t="n">
-        <v>898.5627389702672</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O21" t="n">
-        <v>1472.021563987922</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P21" t="n">
-        <v>1899.09495890519</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q21" t="n">
         <v>1956.817230278806</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.1589912769849</v>
+        <v>695.0144360855294</v>
       </c>
       <c r="C22" t="n">
-        <v>199.0656188387014</v>
+        <v>523.9210636472459</v>
       </c>
       <c r="D22" t="n">
-        <v>199.0656188387014</v>
+        <v>523.9210636472459</v>
       </c>
       <c r="E22" t="n">
-        <v>199.0656188387014</v>
+        <v>523.9210636472459</v>
       </c>
       <c r="F22" t="n">
-        <v>139.7434951733931</v>
+        <v>359.2899377578372</v>
       </c>
       <c r="G22" t="n">
-        <v>139.7434951733931</v>
+        <v>192.8024524746096</v>
       </c>
       <c r="H22" t="n">
-        <v>139.7434951733931</v>
+        <v>49.97792331481151</v>
       </c>
       <c r="I22" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J22" t="n">
-        <v>113.2867408723821</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K22" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L22" t="n">
-        <v>725.7742600107268</v>
+        <v>725.7742600107272</v>
       </c>
       <c r="M22" t="n">
         <v>1132.247446864443</v>
@@ -5934,28 +5934,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R22" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S22" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U22" t="n">
-        <v>1573.893667974185</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V22" t="n">
-        <v>1300.007922913707</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.938258422581</v>
+        <v>1345.793703231126</v>
       </c>
       <c r="X22" t="n">
-        <v>782.5943962822646</v>
+        <v>1107.449841090809</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.8586976710293</v>
+        <v>882.7141424795738</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2463.940310093042</v>
+        <v>2170.449798833135</v>
       </c>
       <c r="C23" t="n">
-        <v>2053.815719406312</v>
+        <v>1760.325208146406</v>
       </c>
       <c r="D23" t="n">
-        <v>1649.351789499372</v>
+        <v>1355.861278239466</v>
       </c>
       <c r="E23" t="n">
-        <v>1235.011574016269</v>
+        <v>941.5210627563628</v>
       </c>
       <c r="F23" t="n">
-        <v>813.9811619699568</v>
+        <v>520.4906507100503</v>
       </c>
       <c r="G23" t="n">
-        <v>406.9536454558441</v>
+        <v>113.4631341959376</v>
       </c>
       <c r="H23" t="n">
         <v>113.4631341959376</v>
@@ -5989,52 +5989,52 @@
         <v>92.68021414426748</v>
       </c>
       <c r="J23" t="n">
-        <v>161.5678068076817</v>
+        <v>488.3436336954109</v>
       </c>
       <c r="K23" t="n">
-        <v>911.7660777190738</v>
+        <v>1238.541904606803</v>
       </c>
       <c r="L23" t="n">
-        <v>1887.410321221728</v>
+        <v>1888.434063301617</v>
       </c>
       <c r="M23" t="n">
-        <v>2956.425885675799</v>
+        <v>2088.77371455146</v>
       </c>
       <c r="N23" t="n">
-        <v>4007.04001881262</v>
+        <v>2294.22366320061</v>
       </c>
       <c r="O23" t="n">
-        <v>4195.639798642149</v>
+        <v>3218.712177316769</v>
       </c>
       <c r="P23" t="n">
-        <v>4524.864528437097</v>
+        <v>3987.574388210503</v>
       </c>
       <c r="Q23" t="n">
-        <v>4615.739919544816</v>
+        <v>4488.744252468675</v>
       </c>
       <c r="R23" t="n">
         <v>4634.010707213374</v>
       </c>
       <c r="S23" t="n">
-        <v>4537.485873534218</v>
+        <v>4587.534709156521</v>
       </c>
       <c r="T23" t="n">
-        <v>4322.724499619675</v>
+        <v>4372.773335241978</v>
       </c>
       <c r="U23" t="n">
-        <v>4065.800069286629</v>
+        <v>4115.848904908933</v>
       </c>
       <c r="V23" t="n">
-        <v>3715.96251462311</v>
+        <v>3766.011350245414</v>
       </c>
       <c r="W23" t="n">
-        <v>3675.741560640488</v>
+        <v>3382.251049380582</v>
       </c>
       <c r="X23" t="n">
-        <v>3275.098162809441</v>
+        <v>2981.607651549535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2874.161489757531</v>
+        <v>2580.670978497625</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>92.68021414426748</v>
       </c>
       <c r="I24" t="n">
-        <v>92.68021414426748</v>
+        <v>103.0518628814407</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0879643897602</v>
+        <v>380.1280171015667</v>
       </c>
       <c r="K24" t="n">
-        <v>214.8398346810719</v>
+        <v>781.4495146695392</v>
       </c>
       <c r="L24" t="n">
-        <v>352.9383061166494</v>
+        <v>919.5479861051167</v>
       </c>
       <c r="M24" t="n">
-        <v>521.9322402076479</v>
+        <v>1088.541920196115</v>
       </c>
       <c r="N24" t="n">
-        <v>701.2344420677678</v>
+        <v>1267.844122056235</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.35325891658</v>
+        <v>1422.871590174307</v>
       </c>
       <c r="P24" t="n">
-        <v>2030.369508857128</v>
+        <v>1539.46490897355</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.091780230744</v>
+        <v>2003.15733735094</v>
       </c>
       <c r="R24" t="n">
         <v>2088.091780230744</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.7167998424468</v>
+        <v>467.4687980971852</v>
       </c>
       <c r="C25" t="n">
-        <v>577.7167998424468</v>
+        <v>401.9922285872931</v>
       </c>
       <c r="D25" t="n">
-        <v>418.2221551653568</v>
+        <v>401.9922285872931</v>
       </c>
       <c r="E25" t="n">
-        <v>257.3113400336762</v>
+        <v>401.9922285872931</v>
       </c>
       <c r="F25" t="n">
-        <v>92.68021414426748</v>
+        <v>401.9922285872931</v>
       </c>
       <c r="G25" t="n">
-        <v>92.68021414426748</v>
+        <v>235.5047433040655</v>
       </c>
       <c r="H25" t="n">
         <v>92.68021414426748</v>
@@ -6171,28 +6171,28 @@
         <v>2363.345460678821</v>
       </c>
       <c r="R25" t="n">
-        <v>2312.375760930754</v>
+        <v>2363.345460678821</v>
       </c>
       <c r="S25" t="n">
-        <v>2139.279360099629</v>
+        <v>2190.249059847695</v>
       </c>
       <c r="T25" t="n">
-        <v>1902.990309457037</v>
+        <v>1953.960009205103</v>
       </c>
       <c r="U25" t="n">
-        <v>1620.233775046319</v>
+        <v>1671.203474794385</v>
       </c>
       <c r="V25" t="n">
-        <v>1346.348029985841</v>
+        <v>1397.317729733907</v>
       </c>
       <c r="W25" t="n">
-        <v>1067.278365494715</v>
+        <v>1118.248065242781</v>
       </c>
       <c r="X25" t="n">
-        <v>828.9345033543984</v>
+        <v>879.9042031024649</v>
       </c>
       <c r="Y25" t="n">
-        <v>765.4165062364912</v>
+        <v>655.1685044912296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2083.81524538507</v>
+        <v>2463.208595736527</v>
       </c>
       <c r="C26" t="n">
-        <v>1673.69065469834</v>
+        <v>2053.084005049797</v>
       </c>
       <c r="D26" t="n">
-        <v>1269.226724791401</v>
+        <v>1648.620075142857</v>
       </c>
       <c r="E26" t="n">
-        <v>854.8865093082973</v>
+        <v>1234.279859659754</v>
       </c>
       <c r="F26" t="n">
         <v>813.2494476134416</v>
@@ -6232,22 +6232,22 @@
         <v>1237.810190250288</v>
       </c>
       <c r="L26" t="n">
-        <v>2213.454433752941</v>
+        <v>1851.848345475855</v>
       </c>
       <c r="M26" t="n">
-        <v>2413.794085002784</v>
+        <v>2052.187996725698</v>
       </c>
       <c r="N26" t="n">
-        <v>2794.928085601442</v>
+        <v>2257.637945374848</v>
       </c>
       <c r="O26" t="n">
-        <v>3719.416599717601</v>
+        <v>3182.126459491007</v>
       </c>
       <c r="P26" t="n">
-        <v>4488.278810611335</v>
+        <v>3950.988670384741</v>
       </c>
       <c r="Q26" t="n">
-        <v>4579.154201719054</v>
+        <v>4452.158534642913</v>
       </c>
       <c r="R26" t="n">
         <v>4597.424989387612</v>
@@ -6268,10 +6268,10 @@
         <v>3295.616495932517</v>
       </c>
       <c r="X26" t="n">
-        <v>2894.973098101469</v>
+        <v>3274.366448452926</v>
       </c>
       <c r="Y26" t="n">
-        <v>2494.036425049559</v>
+        <v>2873.429775401016</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I27" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J27" t="n">
-        <v>125.356250033245</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K27" t="n">
-        <v>214.1081203245567</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2979404908745</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M27" t="n">
-        <v>963.2918745818729</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N27" t="n">
-        <v>1142.594076441993</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O27" t="n">
-        <v>1297.621544560065</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P27" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q27" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R27" t="n">
         <v>2087.360065874229</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>422.5365169031257</v>
+        <v>970.542446843031</v>
       </c>
       <c r="C28" t="n">
-        <v>251.4431444648422</v>
+        <v>799.4490744047475</v>
       </c>
       <c r="D28" t="n">
-        <v>91.94849978775224</v>
+        <v>639.9544297276575</v>
       </c>
       <c r="E28" t="n">
-        <v>91.94849978775224</v>
+        <v>565.8916401201866</v>
       </c>
       <c r="F28" t="n">
-        <v>91.94849978775224</v>
+        <v>401.2605142307779</v>
       </c>
       <c r="G28" t="n">
-        <v>91.94849978775224</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="H28" t="n">
         <v>91.94849978775224</v>
@@ -6408,28 +6408,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R28" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S28" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T28" t="n">
-        <v>1902.258595100521</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U28" t="n">
-        <v>1619.502060689804</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V28" t="n">
-        <v>1345.616315629326</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W28" t="n">
-        <v>1066.5466511382</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="X28" t="n">
-        <v>834.9719219084054</v>
+        <v>1158.242153237075</v>
       </c>
       <c r="Y28" t="n">
-        <v>610.2362232971701</v>
+        <v>1158.242153237075</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2083.81524538507</v>
+        <v>2442.425675684857</v>
       </c>
       <c r="C29" t="n">
-        <v>1673.69065469834</v>
+        <v>2032.301084998127</v>
       </c>
       <c r="D29" t="n">
-        <v>1269.226724791401</v>
+        <v>1627.837155091187</v>
       </c>
       <c r="E29" t="n">
-        <v>854.8865093082973</v>
+        <v>1213.496939608084</v>
       </c>
       <c r="F29" t="n">
-        <v>433.8560972619848</v>
+        <v>792.4665275617715</v>
       </c>
       <c r="G29" t="n">
-        <v>112.7314198394224</v>
+        <v>385.4390110476587</v>
       </c>
       <c r="H29" t="n">
-        <v>112.7314198394224</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="I29" t="n">
         <v>91.94849978775224</v>
       </c>
       <c r="J29" t="n">
-        <v>160.8360924511665</v>
+        <v>487.6119193388956</v>
       </c>
       <c r="K29" t="n">
-        <v>284.629836477034</v>
+        <v>1237.810190250288</v>
       </c>
       <c r="L29" t="n">
-        <v>453.1521360852335</v>
+        <v>1851.848345475855</v>
       </c>
       <c r="M29" t="n">
-        <v>1207.023812238027</v>
+        <v>2052.187996725698</v>
       </c>
       <c r="N29" t="n">
         <v>2257.637945374848</v>
@@ -6490,25 +6490,25 @@
         <v>4597.424989387612</v>
       </c>
       <c r="S29" t="n">
-        <v>4500.900155708456</v>
+        <v>4597.424989387612</v>
       </c>
       <c r="T29" t="n">
-        <v>4286.138781793913</v>
+        <v>4382.66361547307</v>
       </c>
       <c r="U29" t="n">
-        <v>4029.214351460867</v>
+        <v>4382.66361547307</v>
       </c>
       <c r="V29" t="n">
-        <v>3679.376796797348</v>
+        <v>4037.987227097135</v>
       </c>
       <c r="W29" t="n">
-        <v>3295.616495932517</v>
+        <v>3654.226926232303</v>
       </c>
       <c r="X29" t="n">
-        <v>2894.973098101469</v>
+        <v>3253.583528401256</v>
       </c>
       <c r="Y29" t="n">
-        <v>2494.036425049559</v>
+        <v>2852.646855349346</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>102.3201485249255</v>
       </c>
       <c r="J30" t="n">
-        <v>171.6165354540558</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K30" t="n">
-        <v>260.3684057453675</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L30" t="n">
-        <v>398.4668771809449</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M30" t="n">
-        <v>567.4608112719434</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N30" t="n">
-        <v>1673.082564703494</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.110032821566</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P30" t="n">
-        <v>1944.703351620808</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q30" t="n">
         <v>2002.425622994424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.4473320348062</v>
+        <v>594.1604833986721</v>
       </c>
       <c r="C31" t="n">
-        <v>412.3539595965227</v>
+        <v>423.0671109603886</v>
       </c>
       <c r="D31" t="n">
-        <v>252.8593149194328</v>
+        <v>423.0671109603886</v>
       </c>
       <c r="E31" t="n">
-        <v>91.94849978775224</v>
+        <v>423.0671109603886</v>
       </c>
       <c r="F31" t="n">
-        <v>91.94849978775224</v>
+        <v>258.4359850709798</v>
       </c>
       <c r="G31" t="n">
         <v>91.94849978775224</v>
@@ -6645,28 +6645,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R31" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S31" t="n">
-        <v>2138.547645743114</v>
+        <v>2316.940745149182</v>
       </c>
       <c r="T31" t="n">
-        <v>1902.258595100521</v>
+        <v>2080.65169450659</v>
       </c>
       <c r="U31" t="n">
-        <v>1619.502060689804</v>
+        <v>1797.895160095872</v>
       </c>
       <c r="V31" t="n">
-        <v>1345.616315629326</v>
+        <v>1524.009415035394</v>
       </c>
       <c r="W31" t="n">
-        <v>1066.5466511382</v>
+        <v>1244.939750544268</v>
       </c>
       <c r="X31" t="n">
-        <v>828.2027889978833</v>
+        <v>1006.595888403952</v>
       </c>
       <c r="Y31" t="n">
-        <v>603.467090386648</v>
+        <v>781.8601897927165</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2083.81524538507</v>
+        <v>2169.71808447662</v>
       </c>
       <c r="C32" t="n">
-        <v>1673.69065469834</v>
+        <v>1759.59349378989</v>
       </c>
       <c r="D32" t="n">
-        <v>1269.226724791401</v>
+        <v>1355.129563882951</v>
       </c>
       <c r="E32" t="n">
-        <v>854.8865093082973</v>
+        <v>940.7893483998475</v>
       </c>
       <c r="F32" t="n">
-        <v>433.8560972619848</v>
+        <v>519.7589363535351</v>
       </c>
       <c r="G32" t="n">
         <v>112.7314198394224</v>
@@ -6700,25 +6700,25 @@
         <v>91.94849978775224</v>
       </c>
       <c r="J32" t="n">
-        <v>487.6119193388956</v>
+        <v>160.8360924511665</v>
       </c>
       <c r="K32" t="n">
-        <v>611.4056633647631</v>
+        <v>911.0343633625585</v>
       </c>
       <c r="L32" t="n">
-        <v>779.9279629729625</v>
+        <v>1886.678606865212</v>
       </c>
       <c r="M32" t="n">
-        <v>1848.943527427034</v>
+        <v>2087.018258115055</v>
       </c>
       <c r="N32" t="n">
-        <v>2899.557660563854</v>
+        <v>2667.9324185253</v>
       </c>
       <c r="O32" t="n">
-        <v>3824.046174680014</v>
+        <v>3592.42093264146</v>
       </c>
       <c r="P32" t="n">
-        <v>3971.038818006521</v>
+        <v>4361.283143535194</v>
       </c>
       <c r="Q32" t="n">
         <v>4452.158534642913</v>
@@ -6727,25 +6727,25 @@
         <v>4597.424989387612</v>
       </c>
       <c r="S32" t="n">
-        <v>4500.900155708456</v>
+        <v>4586.802994800006</v>
       </c>
       <c r="T32" t="n">
-        <v>4286.138781793913</v>
+        <v>4372.041620885463</v>
       </c>
       <c r="U32" t="n">
-        <v>4029.214351460867</v>
+        <v>4115.117190552418</v>
       </c>
       <c r="V32" t="n">
-        <v>3679.376796797348</v>
+        <v>3765.279635888899</v>
       </c>
       <c r="W32" t="n">
-        <v>3295.616495932517</v>
+        <v>3381.519335024067</v>
       </c>
       <c r="X32" t="n">
-        <v>2894.973098101469</v>
+        <v>2980.87593719302</v>
       </c>
       <c r="Y32" t="n">
-        <v>2494.036425049559</v>
+        <v>2579.93926414111</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I33" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J33" t="n">
-        <v>125.356250033245</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K33" t="n">
-        <v>214.1081203245567</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L33" t="n">
-        <v>352.2065917601341</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M33" t="n">
-        <v>1421.166247446733</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N33" t="n">
-        <v>1600.468449306852</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O33" t="n">
-        <v>1755.495917424925</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P33" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q33" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R33" t="n">
         <v>2087.360065874229</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.467090386648</v>
+        <v>466.7370837406701</v>
       </c>
       <c r="C34" t="n">
-        <v>432.3737179483645</v>
+        <v>466.7370837406701</v>
       </c>
       <c r="D34" t="n">
-        <v>417.4904408088415</v>
+        <v>399.404154836959</v>
       </c>
       <c r="E34" t="n">
-        <v>256.5796256771609</v>
+        <v>399.404154836959</v>
       </c>
       <c r="F34" t="n">
-        <v>91.94849978775224</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="G34" t="n">
-        <v>91.94849978775224</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="H34" t="n">
         <v>91.94849978775224</v>
@@ -6882,28 +6882,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R34" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S34" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T34" t="n">
-        <v>1902.258595100521</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U34" t="n">
-        <v>1619.502060689804</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V34" t="n">
-        <v>1345.616315629326</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W34" t="n">
-        <v>1066.5466511382</v>
+        <v>1117.516350886266</v>
       </c>
       <c r="X34" t="n">
-        <v>828.2027889978833</v>
+        <v>879.1724887459497</v>
       </c>
       <c r="Y34" t="n">
-        <v>603.467090386648</v>
+        <v>654.4367901347144</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>460.680322555237</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="C35" t="n">
-        <v>460.680322555237</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="D35" t="n">
-        <v>460.680322555237</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="E35" t="n">
-        <v>46.34010707213373</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="F35" t="n">
-        <v>46.34010707213373</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="G35" t="n">
-        <v>46.34010707213373</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="H35" t="n">
-        <v>46.34010707213373</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I35" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J35" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K35" t="n">
-        <v>239.0214437614154</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L35" t="n">
-        <v>629.7164969337807</v>
+        <v>734.3195702573439</v>
       </c>
       <c r="M35" t="n">
-        <v>830.0561481836235</v>
+        <v>1129.526662798631</v>
       </c>
       <c r="N35" t="n">
-        <v>1035.506096832773</v>
+        <v>1334.97661144778</v>
       </c>
       <c r="O35" t="n">
-        <v>1224.105876662302</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P35" t="n">
-        <v>1797.564701679957</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q35" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R35" t="n">
         <v>2317.005353606687</v>
@@ -6967,22 +6967,22 @@
         <v>2220.480519927531</v>
       </c>
       <c r="T35" t="n">
-        <v>2220.480519927531</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U35" t="n">
-        <v>2220.480519927531</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="V35" t="n">
-        <v>1870.642965264011</v>
+        <v>1398.957161016424</v>
       </c>
       <c r="W35" t="n">
-        <v>1486.88266439918</v>
+        <v>1015.196860151593</v>
       </c>
       <c r="X35" t="n">
-        <v>1271.838175271636</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="Y35" t="n">
-        <v>870.9015022197265</v>
+        <v>767.6410548978231</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>108.2987238366352</v>
       </c>
       <c r="H36" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I36" t="n">
-        <v>46.34010707213373</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J36" t="n">
-        <v>79.74785731762648</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K36" t="n">
-        <v>168.4997276089381</v>
+        <v>422.5397803207446</v>
       </c>
       <c r="L36" t="n">
-        <v>741.958552626593</v>
+        <v>560.6382517563221</v>
       </c>
       <c r="M36" t="n">
-        <v>1315.417377644248</v>
+        <v>729.6321858473206</v>
       </c>
       <c r="N36" t="n">
-        <v>1494.719579504368</v>
+        <v>908.9343877074405</v>
       </c>
       <c r="O36" t="n">
-        <v>1649.74704762244</v>
+        <v>1063.961855825513</v>
       </c>
       <c r="P36" t="n">
-        <v>1766.340366421683</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q36" t="n">
         <v>1956.817230278806</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376.9281241875072</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C37" t="n">
-        <v>205.8347517492237</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D37" t="n">
-        <v>46.34010707213373</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="E37" t="n">
-        <v>46.34010707213373</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="F37" t="n">
-        <v>46.34010707213373</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="G37" t="n">
-        <v>46.34010707213373</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H37" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I37" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J37" t="n">
         <v>113.286740872382</v>
@@ -7101,10 +7101,10 @@
         <v>354.7109984607101</v>
       </c>
       <c r="L37" t="n">
-        <v>725.7742600107267</v>
+        <v>725.7742600107269</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.247446864443</v>
+        <v>1132.247446864444</v>
       </c>
       <c r="N37" t="n">
         <v>1527.508388525978</v>
@@ -7119,28 +7119,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R37" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S37" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T37" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U37" t="n">
-        <v>1573.893667974185</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V37" t="n">
-        <v>1300.007922913707</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.938258422581</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X37" t="n">
-        <v>782.5943962822646</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y37" t="n">
-        <v>557.8586976710293</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>684.3241419791796</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="C38" t="n">
-        <v>684.3241419791796</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="D38" t="n">
-        <v>684.3241419791796</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="E38" t="n">
-        <v>684.3241419791796</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="F38" t="n">
-        <v>684.3241419791796</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="G38" t="n">
-        <v>360.6135383837104</v>
+        <v>310.1416229477908</v>
       </c>
       <c r="H38" t="n">
-        <v>67.12302712380385</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I38" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J38" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K38" t="n">
-        <v>514.5412052489171</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L38" t="n">
-        <v>683.0635048571165</v>
+        <v>1139.256095666799</v>
       </c>
       <c r="M38" t="n">
-        <v>1256.522329874771</v>
+        <v>1339.595746916642</v>
       </c>
       <c r="N38" t="n">
-        <v>1461.972278523921</v>
+        <v>1545.045695565792</v>
       </c>
       <c r="O38" t="n">
-        <v>1650.57205835345</v>
+        <v>1733.645475395321</v>
       </c>
       <c r="P38" t="n">
-        <v>1797.564701679957</v>
+        <v>1880.638118721828</v>
       </c>
       <c r="Q38" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R38" t="n">
         <v>2317.005353606687</v>
@@ -7207,19 +7207,19 @@
         <v>2102.243979692144</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.319549359098</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="V38" t="n">
         <v>1495.481994695579</v>
       </c>
       <c r="W38" t="n">
-        <v>1495.481994695579</v>
+        <v>1111.721693830748</v>
       </c>
       <c r="X38" t="n">
-        <v>1495.481994695579</v>
+        <v>711.0782959997007</v>
       </c>
       <c r="Y38" t="n">
-        <v>1094.545321643669</v>
+        <v>310.1416229477908</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>108.2987238366352</v>
       </c>
       <c r="H39" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I39" t="n">
-        <v>46.34010707213373</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J39" t="n">
-        <v>79.74785731762648</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K39" t="n">
-        <v>168.4997276089381</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L39" t="n">
-        <v>741.958552626593</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M39" t="n">
-        <v>910.9524867175915</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N39" t="n">
-        <v>1090.254688577711</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O39" t="n">
-        <v>1245.282156695784</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P39" t="n">
         <v>1493.124801901416</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.9281241875072</v>
+        <v>594.2250918561773</v>
       </c>
       <c r="C40" t="n">
-        <v>205.8347517492237</v>
+        <v>423.1317194178938</v>
       </c>
       <c r="D40" t="n">
-        <v>46.34010707213373</v>
+        <v>423.1317194178938</v>
       </c>
       <c r="E40" t="n">
-        <v>46.34010707213373</v>
+        <v>262.2209042862133</v>
       </c>
       <c r="F40" t="n">
-        <v>46.34010707213373</v>
+        <v>262.2209042862133</v>
       </c>
       <c r="G40" t="n">
-        <v>46.34010707213373</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H40" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I40" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J40" t="n">
         <v>113.286740872382</v>
@@ -7356,28 +7356,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R40" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S40" t="n">
-        <v>2092.939253027495</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T40" t="n">
-        <v>1856.650202384903</v>
+        <v>2080.716302964095</v>
       </c>
       <c r="U40" t="n">
-        <v>1573.893667974185</v>
+        <v>1797.959768553377</v>
       </c>
       <c r="V40" t="n">
-        <v>1300.007922913707</v>
+        <v>1524.074023492899</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.938258422581</v>
+        <v>1245.004359001774</v>
       </c>
       <c r="X40" t="n">
-        <v>782.5943962822646</v>
+        <v>1006.660496861457</v>
       </c>
       <c r="Y40" t="n">
-        <v>557.8586976710293</v>
+        <v>781.9247982502217</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1281.959039712116</v>
+        <v>1583.407498078336</v>
       </c>
       <c r="C41" t="n">
-        <v>871.8344490253857</v>
+        <v>1173.282907391606</v>
       </c>
       <c r="D41" t="n">
-        <v>467.3705191184462</v>
+        <v>1173.282907391606</v>
       </c>
       <c r="E41" t="n">
-        <v>467.3705191184462</v>
+        <v>1173.282907391606</v>
       </c>
       <c r="F41" t="n">
-        <v>46.34010707213373</v>
+        <v>752.2524953452939</v>
       </c>
       <c r="G41" t="n">
-        <v>46.34010707213373</v>
+        <v>345.2249788311812</v>
       </c>
       <c r="H41" t="n">
-        <v>46.34010707213373</v>
+        <v>51.73446757127471</v>
       </c>
       <c r="I41" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J41" t="n">
-        <v>298.029845458379</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K41" t="n">
-        <v>871.4886704760339</v>
+        <v>565.7972706491445</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.010970084233</v>
+        <v>734.3195702573439</v>
       </c>
       <c r="M41" t="n">
-        <v>1240.350621334076</v>
+        <v>934.6592215071867</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.800569983226</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O41" t="n">
-        <v>1634.400349812755</v>
+        <v>1328.708949985865</v>
       </c>
       <c r="P41" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q41" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R41" t="n">
         <v>2317.005353606687</v>
@@ -7444,19 +7444,19 @@
         <v>2317.005353606687</v>
       </c>
       <c r="U41" t="n">
-        <v>2066.656013628857</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="V41" t="n">
-        <v>2066.656013628857</v>
+        <v>1967.167798943168</v>
       </c>
       <c r="W41" t="n">
-        <v>1682.895712764026</v>
+        <v>1583.407498078336</v>
       </c>
       <c r="X41" t="n">
-        <v>1682.895712764026</v>
+        <v>1583.407498078336</v>
       </c>
       <c r="Y41" t="n">
-        <v>1281.959039712116</v>
+        <v>1583.407498078336</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>969.9774509400307</v>
+        <v>694.7237704919548</v>
       </c>
       <c r="C42" t="n">
-        <v>835.9823796889764</v>
+        <v>560.7286992409005</v>
       </c>
       <c r="D42" t="n">
-        <v>719.0852219083688</v>
+        <v>443.8315414602929</v>
       </c>
       <c r="E42" t="n">
-        <v>598.5924059006968</v>
+        <v>323.3387254526209</v>
       </c>
       <c r="F42" t="n">
-        <v>489.6325260832014</v>
+        <v>214.3788456351255</v>
       </c>
       <c r="G42" t="n">
-        <v>383.552404284711</v>
+        <v>108.2987238366352</v>
       </c>
       <c r="H42" t="n">
-        <v>321.5937875202096</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I42" t="n">
-        <v>331.9654362573828</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J42" t="n">
-        <v>365.3731865028756</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K42" t="n">
-        <v>938.8320115205305</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L42" t="n">
-        <v>1512.290836538185</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M42" t="n">
-        <v>1681.284770629184</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N42" t="n">
-        <v>1860.586972489304</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O42" t="n">
-        <v>2015.614440607376</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P42" t="n">
-        <v>2259.283082233071</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q42" t="n">
-        <v>2317.005353606687</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R42" t="n">
-        <v>2317.005353606687</v>
+        <v>2041.751673158611</v>
       </c>
       <c r="S42" t="n">
-        <v>2225.918025331386</v>
+        <v>1950.66434488331</v>
       </c>
       <c r="T42" t="n">
-        <v>2070.244063383789</v>
+        <v>1794.990382935713</v>
       </c>
       <c r="U42" t="n">
-        <v>1872.953120343532</v>
+        <v>1597.699439895456</v>
       </c>
       <c r="V42" t="n">
-        <v>1659.241593336566</v>
+        <v>1383.98791288849</v>
       </c>
       <c r="W42" t="n">
-        <v>1446.008425072895</v>
+        <v>1170.754744624819</v>
       </c>
       <c r="X42" t="n">
-        <v>1269.682443211787</v>
+        <v>994.4287627637115</v>
       </c>
       <c r="Y42" t="n">
-        <v>1110.280483575617</v>
+        <v>835.0268031275415</v>
       </c>
     </row>
     <row r="43">
@@ -7566,16 +7566,16 @@
         <v>139.7434951733931</v>
       </c>
       <c r="I43" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J43" t="n">
-        <v>113.286740872382</v>
+        <v>113.2867408723821</v>
       </c>
       <c r="K43" t="n">
-        <v>354.71099846071</v>
+        <v>354.7109984607102</v>
       </c>
       <c r="L43" t="n">
-        <v>725.7742600107266</v>
+        <v>725.7742600107268</v>
       </c>
       <c r="M43" t="n">
         <v>1132.247446864443</v>
@@ -7584,37 +7584,37 @@
         <v>1527.508388525978</v>
       </c>
       <c r="O43" t="n">
-        <v>1892.756382698928</v>
+        <v>1892.756382698929</v>
       </c>
       <c r="P43" t="n">
-        <v>2188.865637888952</v>
+        <v>2188.865637888953</v>
       </c>
       <c r="Q43" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="R43" t="n">
-        <v>2266.03565385862</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="S43" t="n">
-        <v>2092.939253027494</v>
+        <v>2092.939253027495</v>
       </c>
       <c r="T43" t="n">
-        <v>2092.939253027494</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="U43" t="n">
-        <v>1810.182718616777</v>
+        <v>1573.893667974185</v>
       </c>
       <c r="V43" t="n">
-        <v>1810.182718616777</v>
+        <v>1397.17165606615</v>
       </c>
       <c r="W43" t="n">
-        <v>1531.113054125651</v>
+        <v>1397.17165606615</v>
       </c>
       <c r="X43" t="n">
-        <v>1346.527500319878</v>
+        <v>1158.827793925833</v>
       </c>
       <c r="Y43" t="n">
-        <v>1121.791801708642</v>
+        <v>934.0920953145981</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>553.876562098712</v>
+        <v>802.5606822145667</v>
       </c>
       <c r="C44" t="n">
-        <v>143.7519714119821</v>
+        <v>760.8610303783527</v>
       </c>
       <c r="D44" t="n">
-        <v>143.7519714119821</v>
+        <v>760.8610303783527</v>
       </c>
       <c r="E44" t="n">
-        <v>143.7519714119821</v>
+        <v>760.8610303783527</v>
       </c>
       <c r="F44" t="n">
-        <v>143.7519714119821</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="G44" t="n">
-        <v>46.34010707213373</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="H44" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I44" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J44" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K44" t="n">
-        <v>359.633958211767</v>
+        <v>760.6647119405885</v>
       </c>
       <c r="L44" t="n">
-        <v>528.1562578199664</v>
+        <v>929.187011548788</v>
       </c>
       <c r="M44" t="n">
-        <v>728.4959090698093</v>
+        <v>1129.526662798631</v>
       </c>
       <c r="N44" t="n">
-        <v>933.9458577189588</v>
+        <v>1334.97661144778</v>
       </c>
       <c r="O44" t="n">
-        <v>1507.404682736614</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P44" t="n">
-        <v>2080.863507754269</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q44" t="n">
         <v>2171.738898861988</v>
@@ -7678,22 +7678,22 @@
         <v>2220.480519927531</v>
       </c>
       <c r="T44" t="n">
-        <v>2005.719146012988</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="U44" t="n">
-        <v>1748.794715679943</v>
+        <v>1963.556089594485</v>
       </c>
       <c r="V44" t="n">
-        <v>1748.794715679943</v>
+        <v>1613.718534930966</v>
       </c>
       <c r="W44" t="n">
-        <v>1365.034414815111</v>
+        <v>1613.718534930966</v>
       </c>
       <c r="X44" t="n">
-        <v>1365.034414815111</v>
+        <v>1613.718534930966</v>
       </c>
       <c r="Y44" t="n">
-        <v>964.0977417632015</v>
+        <v>1212.781861879056</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>969.9774509400307</v>
+        <v>694.7237704919548</v>
       </c>
       <c r="C45" t="n">
-        <v>835.9823796889764</v>
+        <v>560.7286992409005</v>
       </c>
       <c r="D45" t="n">
-        <v>719.0852219083688</v>
+        <v>443.8315414602929</v>
       </c>
       <c r="E45" t="n">
-        <v>598.5924059006968</v>
+        <v>323.3387254526209</v>
       </c>
       <c r="F45" t="n">
-        <v>489.6325260832014</v>
+        <v>214.3788456351255</v>
       </c>
       <c r="G45" t="n">
-        <v>383.552404284711</v>
+        <v>108.2987238366352</v>
       </c>
       <c r="H45" t="n">
-        <v>321.5937875202096</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I45" t="n">
-        <v>321.5937875202096</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J45" t="n">
-        <v>355.0015377657023</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K45" t="n">
-        <v>928.4603627833573</v>
+        <v>422.5397803207446</v>
       </c>
       <c r="L45" t="n">
-        <v>1066.558834218935</v>
+        <v>560.6382517563221</v>
       </c>
       <c r="M45" t="n">
-        <v>1304.994293676249</v>
+        <v>729.6321858473206</v>
       </c>
       <c r="N45" t="n">
-        <v>1484.296495536369</v>
+        <v>908.9343877074405</v>
       </c>
       <c r="O45" t="n">
-        <v>2057.755320554023</v>
+        <v>1063.961855825513</v>
       </c>
       <c r="P45" t="n">
-        <v>2174.348639353266</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q45" t="n">
-        <v>2232.070910726882</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R45" t="n">
-        <v>2317.005353606687</v>
+        <v>2041.751673158611</v>
       </c>
       <c r="S45" t="n">
-        <v>2225.918025331386</v>
+        <v>1950.66434488331</v>
       </c>
       <c r="T45" t="n">
-        <v>2070.244063383789</v>
+        <v>1794.990382935713</v>
       </c>
       <c r="U45" t="n">
-        <v>1872.953120343532</v>
+        <v>1597.699439895456</v>
       </c>
       <c r="V45" t="n">
-        <v>1659.241593336566</v>
+        <v>1383.98791288849</v>
       </c>
       <c r="W45" t="n">
-        <v>1446.008425072895</v>
+        <v>1170.754744624819</v>
       </c>
       <c r="X45" t="n">
-        <v>1269.682443211787</v>
+        <v>994.4287627637115</v>
       </c>
       <c r="Y45" t="n">
-        <v>1110.280483575617</v>
+        <v>835.0268031275415</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.4679935010853</v>
+        <v>608.8283974190957</v>
       </c>
       <c r="C46" t="n">
-        <v>304.3746210628018</v>
+        <v>536.95336292186</v>
       </c>
       <c r="D46" t="n">
-        <v>304.3746210628018</v>
+        <v>377.4587182447701</v>
       </c>
       <c r="E46" t="n">
-        <v>304.3746210628018</v>
+        <v>377.4587182447701</v>
       </c>
       <c r="F46" t="n">
-        <v>139.7434951733931</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="G46" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I46" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J46" t="n">
         <v>113.286740872382</v>
@@ -7818,13 +7818,13 @@
         <v>1132.247446864443</v>
       </c>
       <c r="N46" t="n">
-        <v>1527.508388525977</v>
+        <v>1527.508388525978</v>
       </c>
       <c r="O46" t="n">
-        <v>1892.756382698928</v>
+        <v>1892.756382698929</v>
       </c>
       <c r="P46" t="n">
-        <v>2188.865637888952</v>
+        <v>2188.865637888953</v>
       </c>
       <c r="Q46" t="n">
         <v>2317.005353606687</v>
@@ -7842,16 +7842,16 @@
         <v>1624.863367722251</v>
       </c>
       <c r="V46" t="n">
-        <v>1405.316925137807</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W46" t="n">
-        <v>1126.247260646682</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X46" t="n">
-        <v>887.903398506365</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.1676998951297</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>97.91326642434689</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>104.6318275192853</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>102.4366539134859</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>101.6891675077491</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>102.7957927373246</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.18023385559253</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>60.14611555112977</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L3" t="n">
         <v>65.26095326728954</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>66.71071319485792</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>66.89790845644049</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>63.40606445924423</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.46949525596848</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8139,19 +8139,19 @@
         <v>60.57957513939591</v>
       </c>
       <c r="K4" t="n">
-        <v>61.02724631019659</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L4" t="n">
-        <v>54.62829389390151</v>
+        <v>63.77472335034199</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N4" t="n">
-        <v>60.85907496485993</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>65.22132752943682</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
         <v>55.77984163990478</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.10046808443771</v>
       </c>
       <c r="K5" t="n">
-        <v>98.28281912965761</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>102.4366539134859</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>102.0587202130598</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>101.9666523769129</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>102.7957927373246</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>64.97221224105589</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>66.71071319485792</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>66.52835575112977</v>
       </c>
       <c r="P6" t="n">
-        <v>63.03651175393351</v>
+        <v>63.40606445924423</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>68.1466285618459</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K7" t="n">
-        <v>61.39679901550731</v>
+        <v>61.02724631019659</v>
       </c>
       <c r="L7" t="n">
-        <v>63.40517064503127</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
         <v>51.71264550841944</v>
@@ -8394,7 +8394,7 @@
         <v>64.92627109634527</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>82.47002078974843</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L8" t="n">
-        <v>104.6318275192853</v>
+        <v>104.2622748139746</v>
       </c>
       <c r="M8" t="n">
-        <v>102.0671012081752</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
@@ -8534,7 +8534,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>64.97221224105589</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8552,7 +8552,7 @@
         <v>63.40606445924423</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R9" t="n">
         <v>68.1466285618459</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.21002243408518</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L10" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>51.71264550841944</v>
+        <v>60.4895222595492</v>
       </c>
       <c r="O10" t="n">
         <v>65.22132752943682</v>
       </c>
       <c r="P10" t="n">
-        <v>64.92627109634527</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
         <v>61.35952565992557</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>309.1570574233693</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>371.7261377459652</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>388.7465102910362</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>196.8357992842872</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>274.7938654537325</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.480309311528</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.6892786572376</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>430.7739209001495</v>
+        <v>196.8357992842872</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>422.6579362622047</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>226.511498291549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>263.5328115890083</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>376.8880543109213</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>196.8357992842869</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>234.3866067414989</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>489.6029845720639</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L18" t="n">
-        <v>439.7579329111894</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>138.8353248117427</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>261.9677302492994</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>430.7739209001495</v>
+        <v>196.8357992842872</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>422.6579362622047</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6162385030557</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>486.2321808955709</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>184.0728146145868</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>315.7268962390513</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>446.5569179098384</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>450.0160157751196</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>177.458638332836</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>743.321953824879</v>
@@ -9895,10 +9895,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L27" t="n">
-        <v>446.5569179098387</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>450.0160157751196</v>
       </c>
       <c r="M29" t="n">
-        <v>559.1232574777282</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>743.321953824879</v>
@@ -10190,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>36.25114816529045</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>379.2567795566622</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>394.1861874027001</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>159.1399578549961</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>224.4169227920867</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>196.8357992842868</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>430.7739209001494</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>439.7579329111894</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>408.5503948754106</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>315.7268962390514</v>
       </c>
       <c r="Q36" t="n">
-        <v>134.0955479631386</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>278.3027893813149</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>409.0267933428844</v>
       </c>
       <c r="M38" t="n">
-        <v>376.8880543109214</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>202.2478677095366</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L39" t="n">
-        <v>439.7579329111894</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>132.5750771781718</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>184.6486320432637</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>454.207152516957</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>430.7739209001494</v>
+        <v>196.8357992842872</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>489.6029845720639</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L42" t="n">
-        <v>439.7579329111894</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>128.3589119459114</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>121.8308226771228</v>
+        <v>196.8357992842868</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>388.7465102910361</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>430.7739209001494</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>489.6029845720639</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>70.14295491547045</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>422.6579362622045</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>315.7268962390514</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11463,7 +11463,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952375</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>348.4183702434977</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>79.67533876534696</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.3222319975678</v>
+        <v>133.843354474595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.81607725923368</v>
+        <v>209.1223276130355</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I14" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.3962838682001</v>
+        <v>98.16301081572161</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>263.9934062320591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>6.77164135698979</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I17" t="n">
         <v>20.57509085115342</v>
@@ -23785,22 +23785,22 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T17" t="n">
-        <v>59.66622090249641</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.10345033146217</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>143.5378971661118</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>92.46935422024676</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>47.9888133030417</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.9572413489716</v>
@@ -24025,19 +24025,19 @@
         <v>212.6137601753971</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>284.106822104246</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>104.2559122018594</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.86791613999577</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>49.54834726607972</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>340.1039534133876</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>104.5606348991075</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>92.46935422024676</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.6055244783947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,61 +24454,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>375.5994168479422</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>85.97954526896753</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>92.46935422024676</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>6.701441581416958</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>85.04381070063476</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>5.109554624709006</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.0031485617806</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>141.3962838682001</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>126.149165661422</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>85.04381070063476</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>290.5556061473074</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.04381070063414</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>143.1652538621913</v>
+        <v>91.24009861564515</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>164.8226104303953</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>92.46935422024676</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25162,19 +25162,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>183.7429196164689</v>
+        <v>151.5567166515052</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.701441581417072</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.8226104303953</v>
+        <v>104.5606348991076</v>
       </c>
       <c r="H37" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>92.46935422024676</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25405,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>82.48374378945709</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>49.96719628156038</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.701441581417072</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8226104303953</v>
+        <v>92.49690505665663</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>92.46935422024676</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.57509085115342</v>
+        <v>15.23467395700386</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>212.6137601753971</v>
       </c>
       <c r="U41" t="n">
-        <v>6.509339451663863</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.9261601361662</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>96.19209582091858</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>53.22072525119788</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>364.7406894620107</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>306.5194956525216</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H44" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>20.57509085115342</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>98.22615456163734</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>141.3962838682001</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>53.79590945127407</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447753.8202287317</v>
+        <v>447753.8202287319</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>447753.8202287316</v>
+        <v>447753.8202287318</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>447753.8202287317</v>
+        <v>447753.820228732</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672697.3049870947</v>
+        <v>672697.3049870948</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>669145.4276263876</v>
+        <v>669145.4276263874</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669145.4276263874</v>
+        <v>669145.4276263876</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>447753.8202287317</v>
+        <v>447753.8202287316</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>447753.8202287316</v>
+        <v>447753.8202287317</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447753.8202287316</v>
+        <v>447753.8202287317</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>553209.8662523451</v>
       </c>
       <c r="D2" t="n">
-        <v>553209.8662523451</v>
+        <v>553209.866252345</v>
       </c>
       <c r="E2" t="n">
         <v>363847.229628774</v>
       </c>
       <c r="F2" t="n">
+        <v>363847.2296287741</v>
+      </c>
+      <c r="G2" t="n">
         <v>363847.2296287742</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363847.229628774</v>
       </c>
       <c r="H2" t="n">
         <v>363847.2296287741</v>
       </c>
       <c r="I2" t="n">
-        <v>515944.1081034966</v>
+        <v>515944.1081034968</v>
       </c>
       <c r="J2" t="n">
-        <v>513542.4850475144</v>
+        <v>513542.4850475146</v>
       </c>
       <c r="K2" t="n">
-        <v>513542.4850475146</v>
+        <v>513542.4850475147</v>
       </c>
       <c r="L2" t="n">
         <v>513542.4850475146</v>
       </c>
       <c r="M2" t="n">
-        <v>363847.229628774</v>
+        <v>363847.2296287741</v>
       </c>
       <c r="N2" t="n">
+        <v>363847.2296287743</v>
+      </c>
+      <c r="O2" t="n">
         <v>363847.2296287741</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363847.229628774</v>
       </c>
       <c r="P2" t="n">
         <v>363847.229628774</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>154035.0951591109</v>
+        <v>154035.095159111</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348960.5275260956</v>
+        <v>348960.5275260957</v>
       </c>
       <c r="C4" t="n">
         <v>348960.5275260956</v>
       </c>
       <c r="D4" t="n">
-        <v>348960.5275260957</v>
+        <v>348960.5275260956</v>
       </c>
       <c r="E4" t="n">
         <v>62988.4280985355</v>
       </c>
       <c r="F4" t="n">
-        <v>62988.42809853548</v>
+        <v>62988.4280985355</v>
       </c>
       <c r="G4" t="n">
-        <v>62988.42809853547</v>
+        <v>62988.4280985355</v>
       </c>
       <c r="H4" t="n">
-        <v>62988.42809853549</v>
+        <v>62988.4280985355</v>
       </c>
       <c r="I4" t="n">
         <v>127162.0151681202</v>
@@ -26447,19 +26447,19 @@
         <v>126148.708597749</v>
       </c>
       <c r="L4" t="n">
-        <v>126148.7085977491</v>
+        <v>126148.708597749</v>
       </c>
       <c r="M4" t="n">
         <v>62988.42809853549</v>
       </c>
       <c r="N4" t="n">
-        <v>62988.42809853548</v>
+        <v>62988.42809853551</v>
       </c>
       <c r="O4" t="n">
+        <v>62988.4280985355</v>
+      </c>
+      <c r="P4" t="n">
         <v>62988.42809853549</v>
-      </c>
-      <c r="P4" t="n">
-        <v>62988.42809853548</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167000.4569365677</v>
+        <v>166998.7208481616</v>
       </c>
       <c r="C6" t="n">
-        <v>170065.635815298</v>
+        <v>170063.899726892</v>
       </c>
       <c r="D6" t="n">
-        <v>170065.6358152979</v>
+        <v>170063.8997268919</v>
       </c>
       <c r="E6" t="n">
-        <v>-250204.5924017508</v>
+        <v>-250763.2774214025</v>
       </c>
       <c r="F6" t="n">
-        <v>256509.7110648299</v>
+        <v>255951.0260451781</v>
       </c>
       <c r="G6" t="n">
-        <v>256509.7110648298</v>
+        <v>255951.0260451782</v>
       </c>
       <c r="H6" t="n">
-        <v>256509.7110648298</v>
+        <v>255951.0260451781</v>
       </c>
       <c r="I6" t="n">
-        <v>155179.425936035</v>
+        <v>155068.0846766032</v>
       </c>
       <c r="J6" t="n">
-        <v>308382.3075204866</v>
+        <v>308263.9026638312</v>
       </c>
       <c r="K6" t="n">
-        <v>308382.3075204866</v>
+        <v>308263.9026638314</v>
       </c>
       <c r="L6" t="n">
-        <v>308382.3075204866</v>
+        <v>308263.9026638313</v>
       </c>
       <c r="M6" t="n">
-        <v>256509.7110648298</v>
+        <v>255951.0260451781</v>
       </c>
       <c r="N6" t="n">
-        <v>256509.7110648299</v>
+        <v>255951.0260451783</v>
       </c>
       <c r="O6" t="n">
-        <v>256509.7110648298</v>
+        <v>255951.0260451781</v>
       </c>
       <c r="P6" t="n">
-        <v>256509.7110648298</v>
+        <v>255951.026045178</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>579.2513384016718</v>
       </c>
       <c r="G4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="H4" t="n">
         <v>579.2513384016718</v>
@@ -26822,16 +26822,16 @@
         <v>1149.356247346903</v>
       </c>
       <c r="M4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="N4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="O4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="P4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27463,19 +27463,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>106.581756746361</v>
+        <v>107.6720111375687</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>60.89331137820062</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>97.76368033039377</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>201.954407124594</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -27542,13 +27542,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>148.7532687738786</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>150.1552775239232</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>154.9286395652819</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>156.4314577072715</v>
@@ -27590,16 +27590,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>228.0068221766244</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>270.8237365228966</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>268.2227927809816</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27703,16 +27703,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>61.98356576940833</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>98.85393472160148</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>186.230873296723</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.6762798736634</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>138.9649511861574</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>106.0361559802766</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27356168491386</v>
       </c>
       <c r="S7" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>229.0970765678321</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>262.0004581534328</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>268.2227927809816</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27937,7 +27937,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>107.6720111375687</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -27988,19 +27988,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>186.230873296723</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>201.954407124594</v>
       </c>
       <c r="X9" t="n">
         <v>165.4162925860556</v>
       </c>
       <c r="Y9" t="n">
-        <v>149.7517649745755</v>
+        <v>148.6615105833678</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.7665342648712</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>160.2360092574602</v>
       </c>
       <c r="D10" t="n">
-        <v>148.7532687738786</v>
+        <v>149.8435231650863</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28025,7 +28025,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>156.4314577072715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27356168491386</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28067,7 +28067,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>270.8237365228966</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.3419121686824</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="K2" t="n">
-        <v>8.776876751129763</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L3" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>9.146429456440488</v>
       </c>
       <c r="K4" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="N4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="P6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M6" t="n">
+      <c r="R6" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K7" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="L7" t="n">
-        <v>8.776876751129763</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>9.146429456440488</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L8" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="M8" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R9" t="n">
         <v>9.146429456440488</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="O10" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="P10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K11" t="n">
         <v>125.0441858847146</v>
@@ -35418,22 +35418,22 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M11" t="n">
-        <v>511.5203415141197</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N11" t="n">
-        <v>579.2513384016718</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O11" t="n">
-        <v>579.2513384016718</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P11" t="n">
-        <v>148.4774175015222</v>
+        <v>345.3132167858094</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R11" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J12" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K12" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L12" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M12" t="n">
-        <v>445.4948089799935</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N12" t="n">
         <v>181.1133352122423</v>
@@ -35506,10 +35506,10 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P12" t="n">
-        <v>579.2513384016718</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R12" t="n">
         <v>85.79236654525752</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K14" t="n">
         <v>125.0441858847146</v>
@@ -35655,19 +35655,19 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M14" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N14" t="n">
         <v>207.5252006557066</v>
       </c>
       <c r="O14" t="n">
-        <v>324.1941067678732</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P14" t="n">
-        <v>579.2513384016718</v>
+        <v>345.3132167858094</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R14" t="n">
         <v>146.7337926714131</v>
@@ -35725,31 +35725,31 @@
         <v>10.47641286583156</v>
       </c>
       <c r="J15" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K15" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L15" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M15" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N15" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O15" t="n">
-        <v>579.2513384016718</v>
+        <v>156.5934021394671</v>
       </c>
       <c r="P15" t="n">
-        <v>344.2825273816928</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>368.9373678514653</v>
       </c>
       <c r="P16" t="n">
-        <v>299.1002577677011</v>
+        <v>299.1002577677012</v>
       </c>
       <c r="Q16" t="n">
         <v>129.4340562805397</v>
@@ -35892,19 +35892,19 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M17" t="n">
-        <v>579.2513384016717</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N17" t="n">
-        <v>207.5252006557066</v>
+        <v>404.3609999399935</v>
       </c>
       <c r="O17" t="n">
         <v>190.5048281106356</v>
       </c>
       <c r="P17" t="n">
-        <v>382.8640242430212</v>
+        <v>148.4774175015222</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R17" t="n">
         <v>146.7337926714131</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J18" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K18" t="n">
-        <v>579.2513384016717</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L18" t="n">
-        <v>579.2513384016717</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M18" t="n">
         <v>170.7009435262611</v>
@@ -35977,16 +35977,16 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O18" t="n">
-        <v>295.4287269512099</v>
+        <v>156.5934021394671</v>
       </c>
       <c r="P18" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K20" t="n">
         <v>125.0441858847146</v>
@@ -36129,22 +36129,22 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M20" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N20" t="n">
         <v>207.5252006557066</v>
       </c>
       <c r="O20" t="n">
-        <v>452.472558359935</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P20" t="n">
-        <v>579.2513384016718</v>
+        <v>345.3132167858094</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R20" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J21" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K21" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L21" t="n">
         <v>139.4934054904823</v>
@@ -36214,13 +36214,13 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O21" t="n">
-        <v>579.2513384016718</v>
+        <v>156.5934021394671</v>
       </c>
       <c r="P21" t="n">
-        <v>431.3872675931995</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R21" t="n">
         <v>85.79236654525752</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K23" t="n">
         <v>757.7760312236283</v>
       </c>
       <c r="L23" t="n">
-        <v>985.4992358612665</v>
+        <v>656.4567259543583</v>
       </c>
       <c r="M23" t="n">
-        <v>1079.813701468759</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N23" t="n">
-        <v>1061.2263971079</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O23" t="n">
-        <v>190.5048281106356</v>
+        <v>933.8267819355145</v>
       </c>
       <c r="P23" t="n">
-        <v>332.550232116109</v>
+        <v>776.6284958522564</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R23" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J24" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K24" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686591</v>
       </c>
       <c r="L24" t="n">
         <v>139.4934054904823</v>
@@ -36451,16 +36451,16 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O24" t="n">
-        <v>603.1503200493055</v>
+        <v>156.5934021394671</v>
       </c>
       <c r="P24" t="n">
-        <v>739.4103534753011</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>757.7760312236283</v>
       </c>
       <c r="L26" t="n">
-        <v>985.4992358612665</v>
+        <v>620.2405608339069</v>
       </c>
       <c r="M26" t="n">
         <v>202.3632840907503</v>
       </c>
       <c r="N26" t="n">
-        <v>384.9838389885426</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O26" t="n">
         <v>933.8267819355145</v>
@@ -36615,10 +36615,10 @@
         <v>776.6284958522564</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R26" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J27" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K27" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L27" t="n">
-        <v>586.050323400321</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M27" t="n">
         <v>170.7009435262611</v>
@@ -36691,13 +36691,13 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P27" t="n">
-        <v>739.4103534753011</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K29" t="n">
-        <v>125.0441858847146</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L29" t="n">
-        <v>170.2245450587873</v>
+        <v>620.2405608339069</v>
       </c>
       <c r="M29" t="n">
-        <v>761.4865415684785</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N29" t="n">
-        <v>1061.2263971079</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O29" t="n">
         <v>933.8267819355145</v>
@@ -36910,10 +36910,10 @@
         <v>10.47641286583156</v>
       </c>
       <c r="J30" t="n">
-        <v>69.99635043346495</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K30" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L30" t="n">
         <v>139.4934054904823</v>
@@ -36922,7 +36922,7 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N30" t="n">
-        <v>1116.789649930859</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O30" t="n">
         <v>156.5934021394671</v>
@@ -36931,7 +36931,7 @@
         <v>117.7710290901437</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R30" t="n">
         <v>85.79236654525752</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>399.6600197486297</v>
+        <v>69.58342693274167</v>
       </c>
       <c r="K32" t="n">
-        <v>125.0441858847146</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L32" t="n">
-        <v>170.2245450587873</v>
+        <v>985.4992358612665</v>
       </c>
       <c r="M32" t="n">
-        <v>1079.813701468759</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N32" t="n">
-        <v>1061.2263971079</v>
+        <v>586.7819802123688</v>
       </c>
       <c r="O32" t="n">
         <v>933.8267819355145</v>
       </c>
       <c r="P32" t="n">
-        <v>148.4774175015222</v>
+        <v>776.6284958522564</v>
       </c>
       <c r="Q32" t="n">
-        <v>485.9795117539315</v>
+        <v>91.79332435123146</v>
       </c>
       <c r="R32" t="n">
         <v>146.7337926714131</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J33" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K33" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L33" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M33" t="n">
-        <v>1079.757227966261</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N33" t="n">
         <v>181.1133352122423</v>
@@ -37165,13 +37165,13 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P33" t="n">
-        <v>276.9109869451398</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K35" t="n">
         <v>125.0441858847146</v>
       </c>
       <c r="L35" t="n">
-        <v>394.6414678508741</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M35" t="n">
-        <v>202.3632840907503</v>
+        <v>399.1990833750372</v>
       </c>
       <c r="N35" t="n">
         <v>207.5252006557066</v>
@@ -37323,13 +37323,13 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P35" t="n">
-        <v>579.2513384016717</v>
+        <v>148.4774175015222</v>
       </c>
       <c r="Q35" t="n">
         <v>506.2321861193653</v>
       </c>
       <c r="R35" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J36" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K36" t="n">
         <v>89.64835382960774</v>
       </c>
       <c r="L36" t="n">
-        <v>579.2513384016717</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M36" t="n">
-        <v>579.2513384016717</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N36" t="n">
         <v>181.1133352122423</v>
@@ -37402,10 +37402,10 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P36" t="n">
-        <v>117.7710290901437</v>
+        <v>433.4979253291951</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.4008725829529</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R36" t="n">
         <v>85.79236654525752</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K38" t="n">
-        <v>403.3469752660295</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L38" t="n">
-        <v>170.2245450587873</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="M38" t="n">
-        <v>579.2513384016717</v>
+        <v>202.3632840907503</v>
       </c>
       <c r="N38" t="n">
         <v>207.5252006557066</v>
@@ -37563,10 +37563,10 @@
         <v>148.4774175015222</v>
       </c>
       <c r="Q38" t="n">
-        <v>506.2321861193653</v>
+        <v>294.0411920607681</v>
       </c>
       <c r="R38" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J39" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K39" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L39" t="n">
-        <v>579.2513384016717</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M39" t="n">
         <v>170.7009435262611</v>
@@ -37639,7 +37639,7 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P39" t="n">
-        <v>250.3461062683155</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q39" t="n">
         <v>468.3761902801918</v>
@@ -37718,7 +37718,7 @@
         <v>368.9373678514653</v>
       </c>
       <c r="P40" t="n">
-        <v>299.1002577677011</v>
+        <v>299.1002577677012</v>
       </c>
       <c r="Q40" t="n">
         <v>129.4340562805397</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>254.2320589760053</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K41" t="n">
-        <v>579.2513384016717</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L41" t="n">
         <v>170.2245450587873</v>
@@ -37797,13 +37797,13 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P41" t="n">
-        <v>579.2513384016717</v>
+        <v>345.3132167858094</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R41" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>10.47641286583156</v>
       </c>
       <c r="J42" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K42" t="n">
-        <v>579.2513384016717</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L42" t="n">
-        <v>579.2513384016717</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M42" t="n">
         <v>170.7009435262611</v>
@@ -37876,13 +37876,13 @@
         <v>156.5934021394671</v>
       </c>
       <c r="P42" t="n">
-        <v>246.1299410360552</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>85.79236654525752</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K44" t="n">
-        <v>246.8750085618374</v>
+        <v>321.8799851690014</v>
       </c>
       <c r="L44" t="n">
         <v>170.2245450587873</v>
@@ -38031,13 +38031,13 @@
         <v>207.5252006557066</v>
       </c>
       <c r="O44" t="n">
-        <v>579.2513384016717</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P44" t="n">
-        <v>579.2513384016717</v>
+        <v>148.4774175015222</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R44" t="n">
         <v>146.7337926714131</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J45" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K45" t="n">
-        <v>579.2513384016717</v>
+        <v>89.64835382960774</v>
       </c>
       <c r="L45" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M45" t="n">
-        <v>240.8438984417315</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N45" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O45" t="n">
-        <v>579.2513384016717</v>
+        <v>156.5934021394671</v>
       </c>
       <c r="P45" t="n">
-        <v>117.7710290901437</v>
+        <v>433.4979253291951</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R45" t="n">
         <v>85.79236654525752</v>
@@ -38183,7 +38183,7 @@
         <v>374.811375303047</v>
       </c>
       <c r="M46" t="n">
-        <v>410.5789766199152</v>
+        <v>410.5789766199156</v>
       </c>
       <c r="N46" t="n">
         <v>399.2534764257927</v>
